--- a/data/trans_camb/P2B_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>20.7904280766132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13.39186253423997</v>
+        <v>13.39186253423998</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>25.1011871529761</v>
@@ -664,7 +664,7 @@
         <v>18.5110239825091</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>8.541855283394955</v>
+        <v>8.541855283394966</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>29.56182010785711</v>
+        <v>29.5713917792945</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.03199118008295</v>
+        <v>15.73444924444897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.973387994713115</v>
+        <v>6.921590296696753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20.56989431643222</v>
+        <v>20.77876397258059</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>13.96051050449204</v>
+        <v>14.06743780575695</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.225106366086234</v>
+        <v>1.296933881846092</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>25.19397625941637</v>
+        <v>25.30311762352621</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>15.17047353878595</v>
+        <v>15.18553705284036</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.30677502156604</v>
+        <v>4.799657126131103</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>39.85189734120324</v>
+        <v>40.28664854111601</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.47134864820881</v>
+        <v>25.961633307481</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.47329674414587</v>
+        <v>20.71018367523834</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30.09837607208457</v>
+        <v>30.18929076801248</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>23.50493216968489</v>
+        <v>23.01863145215648</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.7237283869092</v>
+        <v>11.06820891334757</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>32.04209856714974</v>
+        <v>32.26640667649081</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>21.96415237563469</v>
+        <v>21.84551686219201</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.53936599915873</v>
+        <v>12.30918820016992</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.8975561599762527</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5781482068030775</v>
+        <v>0.5781482068030778</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.7578832508012316</v>
@@ -769,7 +769,7 @@
         <v>0.6262228833082342</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2889686302294018</v>
+        <v>0.2889686302294022</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.093831649631539</v>
+        <v>1.109845790199768</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5757396867911757</v>
+        <v>0.5882407363373034</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2709418622338897</v>
+        <v>0.2665935559608636</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5768466479537475</v>
+        <v>0.5849640556909165</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3860903607789263</v>
+        <v>0.3933186933977852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03178308978002555</v>
+        <v>0.03592869185473487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7889303253629285</v>
+        <v>0.8002801312929623</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4810603890223542</v>
+        <v>0.4836364971900738</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1440487524047892</v>
+        <v>0.1546418424152831</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.004521813435399</v>
+        <v>2.082346455386757</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.276349041788538</v>
+        <v>1.303860943545005</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9849814738778531</v>
+        <v>1.026210774214093</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.99287215257372</v>
+        <v>1.012424949894038</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7789259121727706</v>
+        <v>0.7668397594986642</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3810258237617529</v>
+        <v>0.3632891032285052</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.169025522662273</v>
+        <v>1.1702701196885</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8042123401201901</v>
+        <v>0.7973764111870199</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4558699114568101</v>
+        <v>0.4412921307686368</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>19.7812595354821</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.700181139471983</v>
+        <v>9.700181139471978</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.59610228161056</v>
+        <v>24.91135646564972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.3856215807561</v>
+        <v>12.27672153162827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.023003192271224</v>
+        <v>3.212973082327158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28.10495521483669</v>
+        <v>27.86925909945597</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.01657116828499</v>
+        <v>17.30072286117407</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.344062659424044</v>
+        <v>7.545556456364781</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>28.21483949582524</v>
+        <v>28.07144043945253</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.81286821716607</v>
+        <v>16.27740880023411</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.812099318154028</v>
+        <v>6.582665633136835</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>34.96095993234549</v>
+        <v>34.6288862213925</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.13588118529163</v>
+        <v>22.42273648635249</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.54791212487596</v>
+        <v>12.1152588377422</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36.58056922597386</v>
+        <v>36.45527086189384</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>26.2934252845852</v>
+        <v>26.45074239349312</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.11859399793497</v>
+        <v>14.9267361607253</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>34.17248074617724</v>
+        <v>34.30053495468042</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>23.18781375138256</v>
+        <v>22.94920664521959</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.61246892565255</v>
+        <v>12.82708350369803</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.9200340938028566</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4511592069438041</v>
+        <v>0.4511592069438038</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1.042854029740051</v>
+        <v>1.033840837419817</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5104544144987015</v>
+        <v>0.5168776953930485</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.126558914177156</v>
+        <v>0.1305112289586915</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.190570061269994</v>
+        <v>1.172838195784674</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7223318630647602</v>
+        <v>0.7239021644677052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3073505359100991</v>
+        <v>0.30870660508112</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.207470777135875</v>
+        <v>1.219074402125059</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7244122493696347</v>
+        <v>0.7016403809284005</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2900498968581061</v>
+        <v>0.2802141118402358</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.788536214700765</v>
+        <v>1.786878368256393</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.117423846646129</v>
+        <v>1.174420194910415</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6535557681596924</v>
+        <v>0.6109672891405412</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.892868929198199</v>
+        <v>1.914908014374312</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.314684363714628</v>
+        <v>1.350339700506781</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.774060900792752</v>
+        <v>0.7594148675656239</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.711232324963541</v>
+        <v>1.72096535749748</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.144461914474031</v>
+        <v>1.133263638956006</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6258772305605083</v>
+        <v>0.6416089311614963</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>21.84241600080104</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8383466381030907</v>
+        <v>0.8383466381030824</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>25.90484473139615</v>
@@ -1083,7 +1083,7 @@
         <v>17.82703538285953</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.6568565809076415</v>
+        <v>-0.6568565809076443</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>25.24677516411531</v>
@@ -1092,7 +1092,7 @@
         <v>19.88728242484197</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.2565997120376334</v>
+        <v>0.2565997120376362</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>19.38005415781282</v>
+        <v>19.2835243233176</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.77497461029884</v>
+        <v>17.09071598803008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.251152552315094</v>
+        <v>-3.44896604589004</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20.61680789308175</v>
+        <v>21.3179457290013</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>12.51804163135025</v>
+        <v>12.95627958951876</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.587354159282091</v>
+        <v>-5.168461189368354</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>21.86350553780455</v>
+        <v>21.64977545676193</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.21660985049373</v>
+        <v>16.1222190810151</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.517117615665002</v>
+        <v>-2.797661779821276</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>28.89449550426275</v>
+        <v>28.87517725705844</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.14967167121581</v>
+        <v>26.62534110131617</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.644307066321938</v>
+        <v>5.29611719323789</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30.58631321368349</v>
+        <v>31.15365281144021</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.88652287933641</v>
+        <v>23.02902768791989</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.330556196859582</v>
+        <v>3.402521091547678</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>28.67525232061026</v>
+        <v>28.77948564687752</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>23.46649914854629</v>
+        <v>23.25862203782098</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.433699856174544</v>
+        <v>3.118087942368639</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.040801114330212</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.03994760081030798</v>
+        <v>0.03994760081030758</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.010672248047886</v>
@@ -1188,7 +1188,7 @@
         <v>0.6955181593729938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.02562712589689375</v>
+        <v>-0.02562712589689386</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.085134119843509</v>
@@ -1197,7 +1197,7 @@
         <v>0.8547772366917421</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.01102893739354978</v>
+        <v>0.0110289373935499</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.8523335161759175</v>
+        <v>0.8367483735078172</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.7391978472587505</v>
+        <v>0.7374815993715612</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1420837681565137</v>
+        <v>-0.1521475655056707</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.7333934358833296</v>
+        <v>0.7707915799013707</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4443279096661886</v>
+        <v>0.4738476216797991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1648735727189796</v>
+        <v>-0.1790732621937155</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.880544873339648</v>
+        <v>0.8601590313970934</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.6558968993093219</v>
+        <v>0.6510081768213866</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1015085922967333</v>
+        <v>-0.1130538111075622</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.528836635251608</v>
+        <v>1.553134216146346</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.438098884939644</v>
+        <v>1.420887775914669</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3017528790637437</v>
+        <v>0.2797519176149394</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.311345510507716</v>
+        <v>1.362176939493595</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.001556102851525</v>
+        <v>0.9993603731870211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1398635310748805</v>
+        <v>0.1479848213293568</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.328818327727459</v>
+        <v>1.331579098383718</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.067615227929098</v>
+        <v>1.071656546478872</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1615560862906904</v>
+        <v>0.143780617035741</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>21.56878722296894</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-8.174125977794558</v>
+        <v>-8.174125977794555</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>19.26513792259417</v>
+        <v>19.55732346153666</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.373146797744715</v>
+        <v>8.285725834954031</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.65983047995999</v>
+        <v>-14.94492531042872</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19.89542555070724</v>
+        <v>19.06043402589499</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>18.57657704390421</v>
+        <v>18.2341864407961</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.97159671202633</v>
+        <v>-13.79813317019851</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>22.57470011962953</v>
+        <v>22.44365229581787</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>16.64246275943285</v>
+        <v>16.38034998900919</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-12.17734174575865</v>
+        <v>-12.43809121214736</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>33.83961427008632</v>
+        <v>34.44176334145754</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.5091421778122</v>
+        <v>22.8487683882955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.575594700753028</v>
+        <v>-3.516430291161202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34.60427139383324</v>
+        <v>34.30697128023613</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>32.58940744565992</v>
+        <v>31.9795692391509</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.832154792327287</v>
+        <v>-2.310806815279129</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>32.61041249006581</v>
+        <v>32.54166610703079</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>26.49067348609408</v>
+        <v>26.54137874444952</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.118954305331235</v>
+        <v>-4.602668538031125</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.9477294052948201</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3591699186262278</v>
+        <v>-0.3591699186262276</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6706211687669854</v>
+        <v>0.7004659450187002</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3588123615117508</v>
+        <v>0.3154181769594812</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5374853852623158</v>
+        <v>-0.5368550608041759</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.7599888089849269</v>
+        <v>0.7330352562273005</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7032602944758419</v>
+        <v>0.6831915961560284</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4787640424681899</v>
+        <v>-0.4916295488322105</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8636537038113518</v>
+        <v>0.8728657358745752</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6468943323363622</v>
+        <v>0.6496668077056756</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4741240153418929</v>
+        <v>-0.4737152734008619</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.704260730757012</v>
+        <v>1.794053704688707</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.218852578861344</v>
+        <v>1.164381204078864</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1692157353903561</v>
+        <v>-0.1762601707870011</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.881438884792976</v>
+        <v>1.857491845581464</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.757343948985054</v>
+        <v>1.711532508991272</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.09471845870522985</v>
+        <v>-0.1182685135954045</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.632389435950708</v>
+        <v>1.601236904336196</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.340409199212097</v>
+        <v>1.339657923831908</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2086590850703623</v>
+        <v>-0.2288966538049262</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>27.3719930830346</v>
+        <v>27.48736359954021</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>17.18434840093242</v>
+        <v>17.09445105612275</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1198646432374457</v>
+        <v>-0.5620306712229963</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25.44213670712981</v>
+        <v>25.24310589510908</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>18.38177333152246</v>
+        <v>18.15305525866422</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.5393384580075542</v>
+        <v>-0.729566717587393</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>26.95831549422729</v>
+        <v>26.95157180658986</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>18.63721984354967</v>
+        <v>18.77375340268666</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1494870715801149</v>
+        <v>0.1687261267873785</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>32.65386946984623</v>
+        <v>32.38982513918206</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>22.58081671938354</v>
+        <v>22.47630211547086</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.773284904877704</v>
+        <v>4.605673741416045</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30.26772209374993</v>
+        <v>30.50591600042905</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>23.27294289482161</v>
+        <v>23.20837550843238</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.859957167267446</v>
+        <v>3.705054316533425</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>30.89897251431766</v>
+        <v>30.59876945162791</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>22.21804625299703</v>
+        <v>22.29099077841143</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.422024346311604</v>
+        <v>3.488649613003555</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>1.17189100232778</v>
+        <v>1.175487543661407</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.7445863248858419</v>
+        <v>0.7326566979210514</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.005256117798772648</v>
+        <v>-0.02452650127888162</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.9302360158598161</v>
+        <v>0.9120758615551706</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.6693066528515881</v>
+        <v>0.6630719299371765</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01943318057107775</v>
+        <v>-0.0266488846790908</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>1.069786280624117</v>
+        <v>1.076282593658631</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.7462672099666119</v>
+        <v>0.7450126042820694</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.006355573380676491</v>
+        <v>0.006622521201507765</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.597583208430728</v>
+        <v>1.564076270576427</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.098659844580575</v>
+        <v>1.08748403275561</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2284401726494257</v>
+        <v>0.2205325759261499</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.221868900924797</v>
+        <v>1.225990794788177</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9322413393964532</v>
+        <v>0.9311819585834603</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.15768005652635</v>
+        <v>0.1478767111140131</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.32771059868372</v>
+        <v>1.327129844238407</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9632398809978987</v>
+        <v>0.9517203830333582</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1468787543755144</v>
+        <v>0.1490596352516166</v>
       </c>
     </row>
     <row r="34">
